--- a/Documentación/Pruebas.xlsx
+++ b/Documentación/Pruebas.xlsx
@@ -7,31 +7,1172 @@
     <workbookView xWindow="120" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Pruebas" sheetId="4" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId3"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Pruebas!$B$1:$F$88</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="373">
+  <si>
+    <t>Escenario de Prueba</t>
+  </si>
+  <si>
+    <t>Resultado Esperado</t>
+  </si>
+  <si>
+    <t>Resultado Obtenido</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>H4</t>
+  </si>
+  <si>
+    <t>H5</t>
+  </si>
+  <si>
+    <t>H6</t>
+  </si>
+  <si>
+    <t>H7</t>
+  </si>
+  <si>
+    <t>H8</t>
+  </si>
+  <si>
+    <t>H9</t>
+  </si>
+  <si>
+    <t>H10</t>
+  </si>
+  <si>
+    <t>H15</t>
+  </si>
+  <si>
+    <t>H18</t>
+  </si>
+  <si>
+    <t>H19</t>
+  </si>
+  <si>
+    <t>H25</t>
+  </si>
+  <si>
+    <t>H33</t>
+  </si>
+  <si>
+    <t>H34</t>
+  </si>
+  <si>
+    <t>H35</t>
+  </si>
+  <si>
+    <t>H36</t>
+  </si>
+  <si>
+    <t>H41</t>
+  </si>
+  <si>
+    <t>H43</t>
+  </si>
+  <si>
+    <t>H45</t>
+  </si>
+  <si>
+    <t>H46</t>
+  </si>
+  <si>
+    <t>H47</t>
+  </si>
+  <si>
+    <t>H49</t>
+  </si>
+  <si>
+    <t>H14</t>
+  </si>
+  <si>
+    <t>H21</t>
+  </si>
+  <si>
+    <t>H26</t>
+  </si>
+  <si>
+    <t>H27</t>
+  </si>
+  <si>
+    <t>H28</t>
+  </si>
+  <si>
+    <t>H30</t>
+  </si>
+  <si>
+    <t>H37</t>
+  </si>
+  <si>
+    <t>H42</t>
+  </si>
+  <si>
+    <t>H50</t>
+  </si>
+  <si>
+    <t>H51</t>
+  </si>
+  <si>
+    <t>H53</t>
+  </si>
+  <si>
+    <t>H54</t>
+  </si>
+  <si>
+    <t>H55</t>
+  </si>
+  <si>
+    <t>H56</t>
+  </si>
+  <si>
+    <t>H11</t>
+  </si>
+  <si>
+    <t>H12</t>
+  </si>
+  <si>
+    <t>H13</t>
+  </si>
+  <si>
+    <t>H16</t>
+  </si>
+  <si>
+    <t>H17</t>
+  </si>
+  <si>
+    <t>H20</t>
+  </si>
+  <si>
+    <t>H22</t>
+  </si>
+  <si>
+    <t>H23</t>
+  </si>
+  <si>
+    <t>H24</t>
+  </si>
+  <si>
+    <t>H29</t>
+  </si>
+  <si>
+    <t>H31</t>
+  </si>
+  <si>
+    <t>H32</t>
+  </si>
+  <si>
+    <t>H38</t>
+  </si>
+  <si>
+    <t>H39</t>
+  </si>
+  <si>
+    <t>H40</t>
+  </si>
+  <si>
+    <t>H44</t>
+  </si>
+  <si>
+    <t>H48</t>
+  </si>
+  <si>
+    <t>H52</t>
+  </si>
+  <si>
+    <t>H57</t>
+  </si>
+  <si>
+    <t>ID Historia de Usuario</t>
+  </si>
+  <si>
+    <t>Búsqueda manual de proveedores</t>
+  </si>
+  <si>
+    <t>Búsqueda automatizada de proveedores</t>
+  </si>
+  <si>
+    <t>Visualización de los proveedores mejor rankeados</t>
+  </si>
+  <si>
+    <t>Mostrar detalles básicos del proveedor seleccionado</t>
+  </si>
+  <si>
+    <t>Mostrar detalles de contacto del proveedor seleccionado</t>
+  </si>
+  <si>
+    <t>Elección final de proveedor</t>
+  </si>
+  <si>
+    <t>Encuestas de satisfacción a los clientes</t>
+  </si>
+  <si>
+    <t>Puntaje promedio a los proveedores</t>
+  </si>
+  <si>
+    <t>Mostrar calificación y opiniones de clientes</t>
+  </si>
+  <si>
+    <t>Registro y modificación de clientes</t>
+  </si>
+  <si>
+    <t>Uso de leads en el sistema</t>
+  </si>
+  <si>
+    <t>Registro histórico de trabajos realizados</t>
+  </si>
+  <si>
+    <t>Registro y modificación de proveedores</t>
+  </si>
+  <si>
+    <t>Recarga de leads a proveedores</t>
+  </si>
+  <si>
+    <t>Disminuir en uno la cantidad de leads de proveedores</t>
+  </si>
+  <si>
+    <t>Dar de alta a nuevos suministradores</t>
+  </si>
+  <si>
+    <t>Manejar estados para cuentas eliminadas</t>
+  </si>
+  <si>
+    <t>Manejar estados para cuentas infractoras</t>
+  </si>
+  <si>
+    <t>Eliminación lógica de cuentas de usuarios</t>
+  </si>
+  <si>
+    <t>Uso de perfiles</t>
+  </si>
+  <si>
+    <t>Restringir el acceso a las opciones y vistas</t>
+  </si>
+  <si>
+    <t>Acceso total de administrador al sistema</t>
+  </si>
+  <si>
+    <t>Iniciar y cerrar sesión</t>
+  </si>
+  <si>
+    <t>Integración con Google Maps</t>
+  </si>
+  <si>
+    <t>Confirmación de haber realizado un trabajo para un cliente</t>
+  </si>
+  <si>
+    <t>Compra virtual con leads</t>
+  </si>
+  <si>
+    <t>Registrar y modificar ofertas, promociones y descuentos</t>
+  </si>
+  <si>
+    <t>Buscar productos, ofertas,  promociones y descuentos</t>
+  </si>
+  <si>
+    <t>Registrar y modificar la información de productos</t>
+  </si>
+  <si>
+    <t>Modificación de información de suministradores</t>
+  </si>
+  <si>
+    <t>Impedir completo acceso a cuentas inhabilitadas</t>
+  </si>
+  <si>
+    <t>Habilitar y deshabilitar cuentas de usuarios</t>
+  </si>
+  <si>
+    <t>Reporte del histórico de trabajos realizados</t>
+  </si>
+  <si>
+    <t>Reporte de trabajos personales de proveedor</t>
+  </si>
+  <si>
+    <t>Reporte de ofertas, promociones, y descuentos</t>
+  </si>
+  <si>
+    <t>Reporte de demanda de búsqueda y visita a productos</t>
+  </si>
+  <si>
+    <t>Reporte de proveedores más destacados</t>
+  </si>
+  <si>
+    <t>Reporte de demanda de servicios</t>
+  </si>
+  <si>
+    <t>Cliente registra proyectos específicos</t>
+  </si>
+  <si>
+    <t>Responder a las opiniones de los clientes sobre proveedores</t>
+  </si>
+  <si>
+    <t>Mostrar/Ocultar encuestas de satisfacción al cliente</t>
+  </si>
+  <si>
+    <t>Leads de recompensas a los mejores proveedores</t>
+  </si>
+  <si>
+    <t>Calendario de trabajos pendientes y pasados</t>
+  </si>
+  <si>
+    <t>Otorgar leads a nuevo proveedor</t>
+  </si>
+  <si>
+    <t>Notificación por e-mail a proveedor de nuevos trabajos</t>
+  </si>
+  <si>
+    <t>Notificación por e-mail a proveedor de nuevas encuestas</t>
+  </si>
+  <si>
+    <t>Mensaje de notificación en pantalla de bienvenida de proveedor</t>
+  </si>
+  <si>
+    <t>Visualizar ofertas, promociones y descuentos en el sistema</t>
+  </si>
+  <si>
+    <t>Aplicación móvil para Android</t>
+  </si>
+  <si>
+    <t>Registro e historial de pagos</t>
+  </si>
+  <si>
+    <t>Notificación por e-mail a cuentas inhabilitadas</t>
+  </si>
+  <si>
+    <t>Notificación en pantalla de inicio a usuarios infractores</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Notificaciones instantáneas </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>push</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a los usuarios del sistema</t>
+    </r>
+  </si>
+  <si>
+    <t>Registrar y eliminar lógicamente tipos de servicios</t>
+  </si>
+  <si>
+    <t>Uso de cookies</t>
+  </si>
+  <si>
+    <t>Reporte de crecimiento de proveedor</t>
+  </si>
+  <si>
+    <t>Exportar reportes en PDF</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
   <si>
     <t>Historia de Usuario</t>
   </si>
   <si>
-    <t>Escenario de Prueba</t>
-  </si>
-  <si>
-    <t>Resultado Esperado</t>
+    <t>Como</t>
+  </si>
+  <si>
+    <t>Quiero</t>
+  </si>
+  <si>
+    <t>Para</t>
+  </si>
+  <si>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t>Poder buscar yo mismo a proveedores que se encuentren habilitados</t>
+  </si>
+  <si>
+    <t>Así poder buscar a un proveedor específico que yo quiera</t>
+  </si>
+  <si>
+    <t>Que el sistema pueda buscar automáticamente a los proveedores que cumplan mejor con los criterios de distanciamiento, puntuación, y que estén habilitados</t>
+  </si>
+  <si>
+    <t>Así no tener yo mismo que buscar a los proveedores</t>
+  </si>
+  <si>
+    <t>Poder visualizar una lista de los mejores proveedores luego de la búsqueda automatizada</t>
+  </si>
+  <si>
+    <t>Así poder ver que proveedores me conviene más según el sistema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poder ver los datos básicos de los proveedores </t>
+  </si>
+  <si>
+    <t>Así poder saber un poco a qué personas estaría contratando</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poder ver los datos completos de los proveedores incluidos los de contacto </t>
+  </si>
+  <si>
+    <t>Poder ponerme en contacto con los proveedores que me harán el trabajo.</t>
+  </si>
+  <si>
+    <t>Poder elegir a los proveedores luego de realizar una búsqueda manual</t>
+  </si>
+  <si>
+    <t>Así ser yo el que tome la decisión final acerca de los proveedores que me harán el trabajo</t>
+  </si>
+  <si>
+    <t>Poder llenar encuestas de satisfacción por los trabajos (servicios) que reciba de los proveedores</t>
+  </si>
+  <si>
+    <t>Poder opinar acerca de qué tal me pareció el servicio y que esta información la sepan los proveedores</t>
+  </si>
+  <si>
+    <t>Que a los proveedores se les asigne un puntaje promedio según las calificaciones que tengan en las encuestas de satisfacción al cliente</t>
+  </si>
+  <si>
+    <t>Que así pueda establecerse un ranking con los mejores proveedores</t>
+  </si>
+  <si>
+    <t>Que se muestre la calificación y las opiniones que los clientes hagamos a los proveedores por los servicios que recibimos</t>
+  </si>
+  <si>
+    <t>Que así podamos conocer la opinión que tuvieron los otros clientes</t>
+  </si>
+  <si>
+    <t>Poder registrarme en el sistema y poder modificar yo mismo información personal</t>
+  </si>
+  <si>
+    <t>Así poder hacer uso del sistema y mantener mi información actualizada</t>
+  </si>
+  <si>
+    <t>Proveedor</t>
+  </si>
+  <si>
+    <t>Poder responder a las opiniones que los clientes hagan respecto de los trabajos que realice para ellos, si es que hubieran.</t>
+  </si>
+  <si>
+    <t>Así poder replicar/contestar a los comentarios que hagan los clientes sobre mí</t>
+  </si>
+  <si>
+    <t>Poder elegir cuales encuestas serán visibles</t>
+  </si>
+  <si>
+    <t>Así poder mostrar solo aquellas que me beneficien a mí y a mis servicios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poder hacer uso de leads </t>
+  </si>
+  <si>
+    <t>Que el sistema otorgue leads de recompensas a aquellos de nosotros que tengamos los mejores puntajes, mayor demanda de trabajos, y realicemos más compras virtuales</t>
+  </si>
+  <si>
+    <t>Así poder recibir beneficios adicionales por ser proveedor destacado</t>
+  </si>
+  <si>
+    <t>Que el sistema guarde un registro histórico de mis trabajos realizados</t>
+  </si>
+  <si>
+    <t>Que así quede constancia de todos los trabajos que voy realizando</t>
+  </si>
+  <si>
+    <t>Poder recibir leads de manera gratuita e inmediata cuando me registre</t>
+  </si>
+  <si>
+    <t>Así no tener la necesidad inmediata de ir a comprar leads</t>
+  </si>
+  <si>
+    <t>Poder cambiar los leads que tengo</t>
+  </si>
+  <si>
+    <t>Poder adquirir con estos ofertas, promociones y/o descuentos en tiendas y cadenas suministradoras</t>
+  </si>
+  <si>
+    <t>Poder recibir notificaciones automáticas por correo electrónico cuando un cliente contrate mis servicios</t>
+  </si>
+  <si>
+    <t>Así poder enterarme de un nuevo trabajo vía e-mail</t>
+  </si>
+  <si>
+    <t>Poder recibir notificaciones automáticas por correo electrónico cuando un cliente finalice una encuesta de satisfacción</t>
+  </si>
+  <si>
+    <t>Así poder enterarme de que tengo una nueva encuesta completada</t>
+  </si>
+  <si>
+    <t>Suministrador</t>
+  </si>
+  <si>
+    <t>Poder hacer la recarga de leads a proveedores</t>
+  </si>
+  <si>
+    <t>Así poder vender leads a proveedores que lo necesiten</t>
+  </si>
+  <si>
+    <t>Poder modificar mi información personal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Así poder mantener actualizada mi información </t>
+  </si>
+  <si>
+    <t>Administrador del sistema</t>
+  </si>
+  <si>
+    <t>Que el sistema disminuya en uno la cantidad de leads que tiene el proveedor luego de que un cliente decida contratarlo</t>
+  </si>
+  <si>
+    <t>Que así se vayan consumiendo los leads de los proveedores</t>
+  </si>
+  <si>
+    <t>Poder dar de alta (registrar) nuevos suministradores</t>
+  </si>
+  <si>
+    <t>Así ser solo yo el que pueda afiliarlos al sistema</t>
+  </si>
+  <si>
+    <t>Que el sistema maneje estados que permitan reconocer si una cuenta ha sido eliminada o si sigue vigente</t>
+  </si>
+  <si>
+    <t>Así poder diferenciar aquellas cuentas consideradas como eliminadas</t>
+  </si>
+  <si>
+    <t>Que el sistema maneje estados que permitan reconocer si una cuenta ha recibido una penalidad por no cumplir las reglas de negocio</t>
+  </si>
+  <si>
+    <t>Así poder diferenciar aquellas cuentas consideradas como infractoras de las reglas de negocio</t>
+  </si>
+  <si>
+    <t>Que el sistema impida que los usuarios hagan uso de ciertas funcionalidades cuando sus cuentas se encuentran en estado 'Inhabilitado'</t>
+  </si>
+  <si>
+    <t>Así asegurarme que se cumplan las reglas de negocio</t>
+  </si>
+  <si>
+    <t>Que el sistema envíe notificaciones automáticas por correo electrónico a los usuarios cuando se les cambie el estado a 'Inhabilitado'</t>
+  </si>
+  <si>
+    <t>Que así puedan estar al tanto de que han sufrido una penalidad</t>
+  </si>
+  <si>
+    <t>Poder hacer la eliminación lógica de clientes, proveedores y suministradores</t>
+  </si>
+  <si>
+    <t>Que así no se generen posibles inconsistencias en la base de datos</t>
+  </si>
+  <si>
+    <t>Poder habilitar y deshabilitar las cuentas de clientes, proveedores y suministradores</t>
+  </si>
+  <si>
+    <t>Que el sistema haga uso de perfiles (administrador, cliente, proveedor, y suministrador)</t>
+  </si>
+  <si>
+    <t>Asegurar el control en los accesos a las distintas funcionalidades del sistema</t>
+  </si>
+  <si>
+    <t>Poder registrar y eliminar lógicamente tipos de servicios</t>
+  </si>
+  <si>
+    <t>Así agregarle escalabilidad de servicios a la aplicación</t>
+  </si>
+  <si>
+    <t>Que el sistema restringa el acceso a las opciones y vistas según el perfil del usuario conectado</t>
+  </si>
+  <si>
+    <t>Que el sistema me permita  acceder a todas las funcionalidades de la aplicación sin restricción alguna</t>
+  </si>
+  <si>
+    <t>Así ser yo el que tenga el control total del sistema</t>
+  </si>
+  <si>
+    <t>Que el sistema le permita al usuario iniciar y cerrar sesión con una cuenta que se encuentre en estado 'Activa'</t>
+  </si>
+  <si>
+    <t>Garantizar que solo los usuarios registrados puedan usar la aplicación</t>
+  </si>
+  <si>
+    <t>Que el sistema haga uso de cookies</t>
+  </si>
+  <si>
+    <t>Que el sistema pueda recordar la sesión del usuario conectado</t>
+  </si>
+  <si>
+    <t>Que el sistema haga uso de Google Maps</t>
+  </si>
+  <si>
+    <t>Que así los usuarios puedan elegir su ubicación en un mapa y ésta sea guardada en la base de datos</t>
+  </si>
+  <si>
+    <t>Poder generar un reporte con el histórico de trabajos</t>
+  </si>
+  <si>
+    <t>Así poder visualizar todos los trabajos que alguna vez se han realizado</t>
+  </si>
+  <si>
+    <t>Poder generar un reporte de mis trabajos personales realizados y pendientes</t>
+  </si>
+  <si>
+    <t>Así poder visualizar los trabajos que he hecho y que me faltan por hacer</t>
+  </si>
+  <si>
+    <t>Poder generar un reporte con las ofertas, promociones, y descuentos más vendidos</t>
+  </si>
+  <si>
+    <t>Así saber cuáles ofertas, promociones, y descuentos se venden más</t>
+  </si>
+  <si>
+    <t>Poder generar un reporte de demanda de búsqueda y visita a productos</t>
+  </si>
+  <si>
+    <t>Así saber qué productos se buscan y se venden más</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poder generar un reporte de los proveedores más destacados </t>
+  </si>
+  <si>
+    <t>Así poder saber cuáles son los mejores proveedores</t>
+  </si>
+  <si>
+    <t>Que el sistema pueda generar un reporte de demanda de servicios</t>
+  </si>
+  <si>
+    <t>Que así los proveedores y suministradores sepan cuáles son los servicios que son más frecuentemente solicitados</t>
+  </si>
+  <si>
+    <t>Lista de proveedores de servicios encontrados</t>
+  </si>
+  <si>
+    <t>Mensaje: "Error: debe elegir por lo menos un servicio."</t>
+  </si>
+  <si>
+    <t>Falta ingresar uno o más tipos de servicios requeridos</t>
+  </si>
+  <si>
+    <t>Mensaje: "Error: debe ingresar una fecha."</t>
+  </si>
+  <si>
+    <t>Mensaje: "Error: debe ingresar la descripción del trabajo."</t>
+  </si>
+  <si>
+    <t>Mensaje: "Error: debe haber elegido al menos un proveedor"</t>
+  </si>
+  <si>
+    <t>Mensaje: "Se realizó la contratación exitosamente"</t>
+  </si>
+  <si>
+    <t>Seleccionar la opción "Contratar" sin haber elegido a al menos un proveedor</t>
+  </si>
+  <si>
+    <t>Seleccionar la opción "Contratar" sin el campo "Descripción"</t>
+  </si>
+  <si>
+    <t>Seleccionar la opción "Contratar" sin el campo "Fecha Aproximada"</t>
+  </si>
+  <si>
+    <t>Seleccionar la opción "Contratar" habiendo ingresado todos los campos y  habiendo elegido a al menos un proveedor</t>
+  </si>
+  <si>
+    <t>Información de datos básicos del proveedor mostrada</t>
+  </si>
+  <si>
+    <t>Se muestra la información de datos básicos del proveedor</t>
+  </si>
+  <si>
+    <t>Mostrar información de datos de contacto del proveedor seleccionado</t>
+  </si>
+  <si>
+    <t>Mostrar información de datos básicos del proveedor seleccionado</t>
+  </si>
+  <si>
+    <t>Información de datos de contacto del proveedor mostrada</t>
+  </si>
+  <si>
+    <t>Se muestra la información de datos de contacto del proveedor</t>
+  </si>
+  <si>
+    <t>Mensaje: "Error: por favor elija una opción para la pregunta 6"</t>
+  </si>
+  <si>
+    <t>Encuesta sin pregunta 6 contestada</t>
+  </si>
+  <si>
+    <t>Mensaje: "Error: por favor elija una opción para la pregunta 7"</t>
+  </si>
+  <si>
+    <t>Encuesta sin pregunta 7 contestada</t>
+  </si>
+  <si>
+    <t>Encuesta sin comentarios</t>
+  </si>
+  <si>
+    <t>Mensaje: "Error: por favor ingrese un comentario."</t>
+  </si>
+  <si>
+    <t>Realizar la búsqueda según tipo(s) de servicio(s) requerido(s) (requerido)</t>
+  </si>
+  <si>
+    <t>Se muestra el listado de proveedores encontrados según los tipos de servicios requeridos</t>
+  </si>
+  <si>
+    <t>Se muestra el listado de mejores proveedores encontrados según los criterios escogidos</t>
+  </si>
+  <si>
+    <t>Visualizar a los mejores proveedores luega de una búsqueda automatizada</t>
+  </si>
+  <si>
+    <t>Seleccionar la opción "Contratar" habiendo ingresado todos los campos requeridos</t>
+  </si>
+  <si>
+    <t>Puntaje promedio actualizado</t>
+  </si>
+  <si>
+    <t>Envío de encuesta y actualización de puntaje promedio</t>
+  </si>
+  <si>
+    <t>Mostrar la calificación y los comentarios en cada trabajo histórico del proveedor</t>
+  </si>
+  <si>
+    <t>Calificación y comentarios de clientes pasados mostrados</t>
+  </si>
+  <si>
+    <t>Se muestra la calificación y los comentarios en cada trabajo pasado del prveedor</t>
+  </si>
+  <si>
+    <t>Se actualiza correctamente el puntaje promedio (comprobado a nivel de bases de datos)</t>
+  </si>
+  <si>
+    <t>Validación de campos obligatorios</t>
+  </si>
+  <si>
+    <t>Mostrar mensajes de campos obligatorios</t>
+  </si>
+  <si>
+    <t>Se muestran mensajes de campos obligatorios</t>
+  </si>
+  <si>
+    <t>Validación de campos numéricos</t>
+  </si>
+  <si>
+    <t>Mostrar mensajes de error para campos que solo admiten números</t>
+  </si>
+  <si>
+    <t>Se muestran mensajes de error para campos que solo admiten números</t>
+  </si>
+  <si>
+    <t>Validación de longitud máxima</t>
+  </si>
+  <si>
+    <t>Mostrar mensajes de error para campos que tienen una longitud máxima</t>
+  </si>
+  <si>
+    <t>Se muestran mensajes de error para campos que tienen una longitud máxima</t>
+  </si>
+  <si>
+    <t>Validación de campos con estructura específica (email, y página web)</t>
+  </si>
+  <si>
+    <t>Mostrar mensajes de error para campos que deben seguir una estructura específica</t>
+  </si>
+  <si>
+    <t>Se muestran mensajes de error para campos que deben seguir una estructura específica</t>
+  </si>
+  <si>
+    <t>Validación de campo contraseña igual a confirmación de contraseña</t>
+  </si>
+  <si>
+    <t>Mostrar mensaje de error cuando los campos contraseña y confirmar contraseña no coincidan</t>
+  </si>
+  <si>
+    <t>Se muestra mensaje de error cuando los campos contraseña y confirmar contraseña no coinciden</t>
+  </si>
+  <si>
+    <t>Validación de DNI/RUC ya existente</t>
+  </si>
+  <si>
+    <t>Mostrar mensaje de error si el DNI/RUC ingresado ya existía en la base de datos</t>
+  </si>
+  <si>
+    <t>Se muestra mensaje de error  si el DNI/RUC ingresado ya existía en la base de datos</t>
+  </si>
+  <si>
+    <t>Mostrar mensaje de error si no se adjunta una foto y si no tiene extensión JPG o PNG</t>
+  </si>
+  <si>
+    <t>Validación de subir una foto (obligatorio) y con extensión JPG, o PNG</t>
+  </si>
+  <si>
+    <t>Se muestra mensaje de error si no se adjunta una foto y si no tiene extensión JPG o PNG</t>
+  </si>
+  <si>
+    <t>Todos los campos correctamente ingresados</t>
+  </si>
+  <si>
+    <t>Creación de la cuenta y redirección a página principal</t>
+  </si>
+  <si>
+    <t>Se crea la cuenta y se redirecciona a página principal</t>
+  </si>
+  <si>
+    <t>Seleccionar "Enviar" sin haber ingresado un comentario</t>
+  </si>
+  <si>
+    <t>Envío de respuesta a encuesta de cliente con comentario ingresado</t>
+  </si>
+  <si>
+    <t>Marcar/desmarcar la opción "¿Encuesta visible?"</t>
+  </si>
+  <si>
+    <t>Mensaje: "Su comentario fue enviado exitosamente."</t>
+  </si>
+  <si>
+    <t>Mensaje: "Debe ingresar un comentario para continuar"</t>
+  </si>
+  <si>
+    <t>Mostrar mensaje "Se actualizó el estado de visibilidad de la encuesta" y actualizar estado de visibilidad de la encuesta</t>
+  </si>
+  <si>
+    <t>Se muestra mensaje "Se actualizó el estado de visibilidad de la encuesta" y se actualiza el estado de visibilidad de la encuesta</t>
+  </si>
+  <si>
+    <t>Mensaje: "El cliente aún no responde la encuesta"</t>
+  </si>
+  <si>
+    <t>La encuesta aún no ha sido respondida por el cliente</t>
+  </si>
+  <si>
+    <t>Consumir leads de suministradores al hacer recargas de leads</t>
+  </si>
+  <si>
+    <t>Actualizar leads de proveedores si solicita recargas de leads</t>
+  </si>
+  <si>
+    <t>Así poder ser buscado y contratado por clientes, y para que pueda cambiarlos por  promociones en tiendas suministradoras</t>
+  </si>
+  <si>
+    <t>Asignación automática de leads al registrar proveedores y suministradores</t>
+  </si>
+  <si>
+    <t>Los leads de los proveedores se consumen cuando son contratados</t>
+  </si>
+  <si>
+    <t>Consumir leads de proveedores cuando son contratados por clientes</t>
+  </si>
+  <si>
+    <t>Los leads de los suministradores se consumen cuando hacen recargas de leads</t>
+  </si>
+  <si>
+    <t>Los leads de los proveedores se actualizan cuando son contratados</t>
+  </si>
+  <si>
+    <t>Los leads de los proveedores se consumen cuando hacen una compra virtual</t>
+  </si>
+  <si>
+    <t>Consumir leads de proveedores si hace una compra virtual de una promoción</t>
+  </si>
+  <si>
+    <t>Los suministradores y proveedores empiezan con una cantidad inicial de leads al registrarse</t>
+  </si>
+  <si>
+    <t>Los leads de los proveedores se consumen cuando son contratados (verificado a nivel de bases de datos y en la UI)</t>
+  </si>
+  <si>
+    <t>Los leads de los suministradores se consumen cuando hacen recargas de leads (verificado a nivel de bases de datos y en la UI)</t>
+  </si>
+  <si>
+    <t>Los leads de los proveedores se actualizan cuando son contratados (verificado a nivel de bases de datos y en la UI)</t>
+  </si>
+  <si>
+    <t>Los leads de los proveedores se consumen cuando hacen una compra virtual (verificado a nivel de bases de datos y en la UI)</t>
+  </si>
+  <si>
+    <t>Los suministradores y proveedores empiezan con una cantidad inicial de leads al registrarse (verificado a nivel de bases de datos y en la UI)</t>
+  </si>
+  <si>
+    <t>Otorgar leads de recompensas a proveedores destacados</t>
+  </si>
+  <si>
+    <t>Se otorgan leads a aquellos proveedores que más destaquen</t>
+  </si>
+  <si>
+    <t>Los leads de recompensas son otorgados a los proveedores destacados (comprobado a nivel de bases de datos)</t>
+  </si>
+  <si>
+    <t>Listado de trabajos anteriores de los proveedores</t>
+  </si>
+  <si>
+    <t>Almacenar y visualizar el historial de trabajos de los proveedores</t>
+  </si>
+  <si>
+    <t>Se almacenan y muestran las trabajos que los proveedores han realizado</t>
+  </si>
+  <si>
+    <t>Validación de haber escogido al menos un servicio brindado</t>
+  </si>
+  <si>
+    <t>Mensaje: "Error: debe elegir al menos un tipo de servicio"</t>
+  </si>
+  <si>
+    <t>Separación de productos en promoción (compra virtual)</t>
+  </si>
+  <si>
+    <t>Mensaje: "Se realizó la separación exitosamente.
+Póngase en contacto con el suministrador 
+para finalizar la compra."</t>
+  </si>
+  <si>
+    <t>Se actualiza la cantidad que queda disponible del ítem en promoción</t>
+  </si>
+  <si>
+    <t>Actualización de cantidad disponible de ítem en promoción del suministrador.</t>
+  </si>
+  <si>
+    <t>Se actualiza la cantidad que queda disponible del ítem en promoción (verificado a nivel de bases de datos y en la UI)</t>
+  </si>
+  <si>
+    <t>Validación de contar con suficientes leads para hacer la compra virtual</t>
+  </si>
+  <si>
+    <t>Mensaje: "Error: no cuenta con suficientes leads. 
+Por favor, solicite una recarga a su suministrador favorito"</t>
+  </si>
+  <si>
+    <t>Envío de notificación por e-mail</t>
+  </si>
+  <si>
+    <t>La notificación por e-mail es enviada</t>
+  </si>
+  <si>
+    <t>Seleccionar la opción "Buscar" sin haber ingresado un documento</t>
+  </si>
+  <si>
+    <t>Mensaje "Error: debe ingresar un documento para poder buscar."</t>
+  </si>
+  <si>
+    <t>Mensaje "Error: debe buscar a un proveedor primero."</t>
+  </si>
+  <si>
+    <t>Seleccionar la opción "Recargar" sin haber buscado y encontrado a un proveedor</t>
+  </si>
+  <si>
+    <t>No se encuentra al proveedor buscado</t>
+  </si>
+  <si>
+    <t>Mensaje "No se encontró al proveedor con documento: _____"</t>
+  </si>
+  <si>
+    <t>Suministrador no cuenta con suficientes leads para hacer la recarga</t>
+  </si>
+  <si>
+    <t>Mensaje "Error: usted no tiene leads suficientes para hacer la recarga.
+Leads totales: __"</t>
+  </si>
+  <si>
+    <t>Mensaje "La recarga se realizó exitosamente"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se realiza la recarga con éxito tras buscar y encontrar al proveedor, y si el suministrador tiene leads suficientes </t>
+  </si>
+  <si>
+    <t>Registrar y modificar productos, ofertas, promociones y descuentos</t>
+  </si>
+  <si>
+    <t>Poder registrar y modificar la información de mis productos, ofertas, promociones y descuentos</t>
+  </si>
+  <si>
+    <t>Así poder mantener actualizada la información de mis productos, ofertas, promociones y descuentos</t>
+  </si>
+  <si>
+    <t>Buscar productos de los suministradores</t>
+  </si>
+  <si>
+    <t>Que se pueda buscar productos, por nombre del producto, distrito, categoría, y suministrador</t>
+  </si>
+  <si>
+    <t>Que así los clientes y proveedores puedan encontrar mis productos ofrecidos.</t>
+  </si>
+  <si>
+    <t>Que se pueda mostrar las ofertas,  promociones y descuentos de las tiendas y cadenas suministradoras</t>
+  </si>
+  <si>
+    <t>Que así los clientes y proveedores puedan ver lo que  ofrezco además de los productos</t>
+  </si>
+  <si>
+    <t>Realizar búsqueda según los criterios seleccionados</t>
+  </si>
+  <si>
+    <t>Registro del ítem realizado exitosamente</t>
+  </si>
+  <si>
+    <t>El ítem es debidamente registrado (verificado a nivel de bases de datos y en la UI)</t>
+  </si>
+  <si>
+    <t>Mostrar los productos según los criterios seleccionados</t>
+  </si>
+  <si>
+    <t>Se muestran los productos según los criterios seleccionados</t>
+  </si>
+  <si>
+    <t>Mostrar ofertas, promociones y descuentos de los suministradoras.</t>
+  </si>
+  <si>
+    <t>Visualización de las ofertas, promociones, y descuentos de los suministradores</t>
+  </si>
+  <si>
+    <t>Mostrar todas las ofertas, promociones, y descuentos</t>
+  </si>
+  <si>
+    <t>Se muestran todas las ofertas, promociones, y descuentos</t>
+  </si>
+  <si>
+    <t>Ocultamiento/muestra de opción "Separar" si la persona no es un proveedor registrador</t>
+  </si>
+  <si>
+    <t>La opción "Separar" queda oculta si la persona no es un proveedor registrado</t>
+  </si>
+  <si>
+    <t>Ocultar opción "Separar" si la persona no es un proveedor registrado</t>
+  </si>
+  <si>
+    <t>Todas las pruebas de H10</t>
+  </si>
+  <si>
+    <t>Todas las pruebas de HU34 menos la primera</t>
+  </si>
+  <si>
+    <t>Utilización de un campo "IsEliminado"</t>
+  </si>
+  <si>
+    <t>El campo es utilizado para indicar si una cuenta está eliminada o no</t>
+  </si>
+  <si>
+    <t>Utilización de un campo "IsHabilitado"</t>
+  </si>
+  <si>
+    <t>El campo es utilizado para indicar si una cuenta está habilitada o no</t>
+  </si>
+  <si>
+    <t>Acceder a funciones propias y exclusivas de cada cuenta</t>
+  </si>
+  <si>
+    <t>Acceder a una función cuyo requisito es estar habilitado (según reglas de negocio)</t>
+  </si>
+  <si>
+    <t>Se muestra pantalla de "Usuario Inhabilitado"</t>
+  </si>
+  <si>
+    <t>Administrador elimina lógicamente una cuenta de usuario</t>
+  </si>
+  <si>
+    <t>La cuenta es eliminada lógicamente (IsEliminado = 1)</t>
+  </si>
+  <si>
+    <t>Administrador inhabilita una cuenta de usuario</t>
+  </si>
+  <si>
+    <t>La cuenta es inhabilitada (IsHabilitado = 1)</t>
+  </si>
+  <si>
+    <t>Administrador elimina lógicamente un tipo de servicio</t>
+  </si>
+  <si>
+    <t>El tipo de servicio es eliminado lógicamente (IsEliminado = 1)</t>
+  </si>
+  <si>
+    <t>Los usuarios solo acceden a aquellas funciones públicas, y asignadas según su rol</t>
+  </si>
+  <si>
+    <t>Utilización de perfiles en el sistema</t>
+  </si>
+  <si>
+    <t>Cada usuario tiene un perfil asignado</t>
+  </si>
+  <si>
+    <t>Administrador puede acceder a todas las funciones del sistema</t>
+  </si>
+  <si>
+    <t>El administrador accede a cualquier función del sistema</t>
+  </si>
+  <si>
+    <t>Inicio de sesión de usuario registrado</t>
+  </si>
+  <si>
+    <t>Los usuarios registrados inician sesión en el sistema</t>
+  </si>
+  <si>
+    <t>Cierre de sesión de usuario registrado</t>
+  </si>
+  <si>
+    <t>Los usuarios registrados cierran sesión en el sistema</t>
+  </si>
+  <si>
+    <t>Contraseña incorrecta</t>
+  </si>
+  <si>
+    <t>Mensaje "El nombre de usuario o la contraseña especificados son incorrectos."</t>
+  </si>
+  <si>
+    <t>Selección de opción "Recordarme"</t>
+  </si>
+  <si>
+    <t>La sesión es recordada en el browser la próxima vez que se accede a la aplicación</t>
+  </si>
+  <si>
+    <t>Visualización de Google Maps para registros y ubicaciones</t>
+  </si>
+  <si>
+    <t>Mostrar el mapa de Google Maps correctamente</t>
+  </si>
+  <si>
+    <t>El mapa de Google Maps es mostrado correctamente</t>
+  </si>
+  <si>
+    <t>Ingreso de criterios de generación de reporte</t>
+  </si>
+  <si>
+    <t>Reporte generado según criterios</t>
+  </si>
+  <si>
+    <t>Realizar la búsqueda según tipo(s) de servicio(s) requerido(s) (obligatorio) y nombre/razón social (opcional)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -39,16 +1180,57 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -71,19 +1253,112 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -382,128 +1657,2652 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:E18"/>
+  <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E18"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" style="14" customWidth="1"/>
+    <col min="3" max="3" width="37" style="10" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" style="16" customWidth="1"/>
+    <col min="8" max="8" width="27" style="16" customWidth="1"/>
+    <col min="9" max="9" width="28.85546875" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B3" s="20"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B4" s="20"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B5" s="19"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>2</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B7" s="20"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B8" s="20"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B9" s="20"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B10" s="19"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>3</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>4</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>5</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>6</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="B15" s="19"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>7</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B17" s="20"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" s="19"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>8</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>9</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>10</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B22" s="20"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B23" s="20"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B24" s="20"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B25" s="20"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B26" s="20"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B27" s="20"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B28" s="19"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
+        <v>12</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B30" s="20"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B31" s="19"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A32" s="13">
+        <v>13</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="13"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A34" s="13">
+        <v>15</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A35" s="13"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A36" s="13"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A37" s="13"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A38" s="13"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A39" s="13">
+        <v>16</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="13">
+        <v>18</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="13">
+        <v>19</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="G41" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+    </row>
+    <row r="42" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="13"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A43" s="13">
+        <v>20</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A44" s="13">
+        <v>21</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="I44" s="11" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A45" s="13"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="I45" s="11" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A46" s="13"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="I46" s="11" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A47" s="13"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="I47" s="11" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A48" s="13">
+        <v>22</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="I48" s="11" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A49" s="13">
+        <v>23</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="I49" s="11" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="13">
+        <v>25</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="I50" s="11" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A51" s="13"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="I51" s="11" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="13"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A53" s="13"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="H53" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="I53" s="11" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A54" s="13"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="H54" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="I54" s="11" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A55" s="13"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="H55" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="I55" s="11" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A56" s="13"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="H56" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="I56" s="11" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A57" s="13">
+        <v>26</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="H57" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="I57" s="11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58" s="13"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="H58" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="I58" s="11" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A59" s="13"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="H59" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="I59" s="11" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A60" s="13"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="H60" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="I60" s="11" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A61" s="13"/>
+      <c r="B61" s="19"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="H61" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="I61" s="11" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A62" s="13">
+        <v>27</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="G62" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="H62" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="I62" s="11" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A63" s="13">
+        <v>28</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="H63" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="I63" s="11" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A64" s="13"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="H64" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="I64" s="11" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="13">
+        <v>30</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="G65" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="H65" s="17"/>
+      <c r="I65" s="17"/>
+    </row>
+    <row r="66" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A66" s="13">
+        <v>33</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G66" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="H66" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="I66" s="11" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="13">
+        <v>34</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="G67" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="H67" s="17"/>
+      <c r="I67" s="17"/>
+    </row>
+    <row r="68" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A68" s="13">
+        <v>35</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="G68" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="H68" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="I68" s="11" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A69" s="13">
+        <v>36</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="H69" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="I69" s="11" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A70" s="13">
+        <v>37</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="G70" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="H70" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="I70" s="11" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A71" s="13">
+        <v>38</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="G71" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="H71" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="I71" s="11" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A72" s="13">
+        <v>41</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="G72" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="H72" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="I72" s="11" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A73" s="13">
+        <v>42</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="G73" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="H73" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="I73" s="11" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A74" s="13">
+        <v>43</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="G74" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="H74" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="I74" s="11" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A75" s="13">
+        <v>44</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="G75" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="H75" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="I75" s="11" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A76" s="13">
+        <v>45</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="G76" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="H76" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="I76" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A77" s="13">
+        <v>46</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="G77" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="H77" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="I77" s="11" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A78" s="13">
+        <v>47</v>
+      </c>
+      <c r="B78" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="G78" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="H78" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="I78" s="11" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="13"/>
+      <c r="B79" s="20"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="H79" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="I79" s="11" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A80" s="13"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="H80" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="I80" s="11" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A81" s="13">
+        <v>48</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G81" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="H81" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="I81" s="11" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A82" s="13">
+        <v>49</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="G82" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="H82" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="I82" s="11" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A83" s="13">
+        <v>50</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="G83" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="H83" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="I83" s="11" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A84" s="13">
+        <v>51</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="G84" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="H84" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="I84" s="11" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A85" s="13">
+        <v>53</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="G85" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="H85" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="I85" s="11" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A86" s="13">
+        <v>54</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="G86" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="H86" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="I86" s="11" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A87" s="13">
+        <v>55</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="G87" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="H87" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="I87" s="11" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A88" s="13">
+        <v>56</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="G88" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="H88" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="I88" s="11" t="s">
+        <v>371</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B1:F88">
+    <sortState ref="B2:I58">
+      <sortCondition ref="B1:B58"/>
+    </sortState>
+  </autoFilter>
+  <mergeCells count="16">
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="B50:B56"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="B21:B28"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F58"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="34.140625" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="2:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="2:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B22" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B23" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B28" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B31" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B32" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B33" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B34" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B35" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B36" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B37" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B38" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B40" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B41" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B42" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B43" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B44" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B46" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B47" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B48" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B49" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B52" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B53" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B54" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B55" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B57" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B58" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -518,4 +4317,16 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>